--- a/docs/基础数据：广告定义.xlsx
+++ b/docs/基础数据：广告定义.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="广告状态" sheetId="1" r:id="rId1"/>
     <sheet name="广告类型" sheetId="4" r:id="rId2"/>
     <sheet name="点击数据" sheetId="2" r:id="rId3"/>
     <sheet name="点击效果" sheetId="3" r:id="rId4"/>
+    <sheet name="属性定义" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="122211" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="115">
   <si>
     <t>状态ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -283,13 +284,113 @@
   </si>
   <si>
     <t>IMAGE_LOOP</t>
+  </si>
+  <si>
+    <t>素材属性ID</t>
+  </si>
+  <si>
+    <t>素材属性简称</t>
+  </si>
+  <si>
+    <t>desc</t>
+  </si>
+  <si>
+    <t>描述</t>
+  </si>
+  <si>
+    <t>width</t>
+  </si>
+  <si>
+    <t>宽</t>
+  </si>
+  <si>
+    <t>height</t>
+  </si>
+  <si>
+    <t>高</t>
+  </si>
+  <si>
+    <t>src</t>
+  </si>
+  <si>
+    <t>素材地址</t>
+  </si>
+  <si>
+    <t>byte_size</t>
+  </si>
+  <si>
+    <t>素材大小</t>
+  </si>
+  <si>
+    <t>mime</t>
+  </si>
+  <si>
+    <t>mime类型</t>
+  </si>
+  <si>
+    <t>ext</t>
+  </si>
+  <si>
+    <t>素材文件扩展名</t>
+  </si>
+  <si>
+    <t>play_duration</t>
+  </si>
+  <si>
+    <t>播放时长（对于图片为0)</t>
+  </si>
+  <si>
+    <t>codec</t>
+  </si>
+  <si>
+    <t>编码方式</t>
+  </si>
+  <si>
+    <t>frame_rate</t>
+  </si>
+  <si>
+    <t>视频帧率</t>
+  </si>
+  <si>
+    <t>bit_rate</t>
+  </si>
+  <si>
+    <t>比特率</t>
+  </si>
+  <si>
+    <t>sample</t>
+  </si>
+  <si>
+    <t>采样率</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>html素材的内容</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>文本内容</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>广告标题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -313,6 +414,17 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="AR PL UKai CN"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <name val="AR PL UKai CN"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -334,9 +446,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -644,16 +762,16 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="15.875" customWidth="1"/>
     <col min="3" max="3" width="14.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -664,7 +782,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -675,7 +793,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -686,7 +804,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -697,7 +815,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -708,7 +826,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -719,7 +837,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -730,7 +848,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -751,17 +869,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="19.875" customWidth="1"/>
     <col min="3" max="3" width="21.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>64</v>
       </c>
@@ -772,7 +890,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -783,7 +901,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -794,7 +912,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -805,7 +923,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -816,7 +934,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -827,7 +945,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -838,7 +956,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -849,7 +967,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -874,13 +992,13 @@
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="17.375" customWidth="1"/>
     <col min="3" max="3" width="25.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -891,7 +1009,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -902,7 +1020,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -913,7 +1031,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -924,7 +1042,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -935,7 +1053,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -946,7 +1064,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -957,7 +1075,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -968,7 +1086,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -979,7 +1097,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -990,7 +1108,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1001,7 +1119,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1012,7 +1130,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1023,7 +1141,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1048,13 +1166,13 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="21" customWidth="1"/>
     <col min="4" max="4" width="19.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>46</v>
       </c>
@@ -1068,7 +1186,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1079,7 +1197,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1090,7 +1208,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1101,7 +1219,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1112,7 +1230,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1123,7 +1241,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1134,7 +1252,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1145,7 +1263,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1156,7 +1274,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1167,7 +1285,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1176,6 +1294,203 @@
       </c>
       <c r="D11" t="s">
         <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="16.625" customWidth="1"/>
+    <col min="2" max="2" width="23.125" customWidth="1"/>
+    <col min="3" max="3" width="36.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="18.75">
+      <c r="A1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/docs/基础数据：广告定义.xlsx
+++ b/docs/基础数据：广告定义.xlsx
@@ -12,13 +12,14 @@
     <sheet name="点击数据" sheetId="2" r:id="rId3"/>
     <sheet name="点击效果" sheetId="3" r:id="rId4"/>
     <sheet name="属性定义" sheetId="5" r:id="rId5"/>
+    <sheet name="广告标签" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="122211" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="133">
   <si>
     <t>状态ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -310,15 +311,6 @@
     <t>高</t>
   </si>
   <si>
-    <t>src</t>
-  </si>
-  <si>
-    <t>素材地址</t>
-  </si>
-  <si>
-    <t>byte_size</t>
-  </si>
-  <si>
     <t>素材大小</t>
   </si>
   <si>
@@ -334,9 +326,6 @@
     <t>素材文件扩展名</t>
   </si>
   <si>
-    <t>play_duration</t>
-  </si>
-  <si>
     <t>播放时长（对于图片为0)</t>
   </si>
   <si>
@@ -346,15 +335,9 @@
     <t>编码方式</t>
   </si>
   <si>
-    <t>frame_rate</t>
-  </si>
-  <si>
     <t>视频帧率</t>
   </si>
   <si>
-    <t>bit_rate</t>
-  </si>
-  <si>
     <t>比特率</t>
   </si>
   <si>
@@ -383,6 +366,100 @@
   </si>
   <si>
     <t>广告标题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签ID</t>
+  </si>
+  <si>
+    <t>标签简称</t>
+  </si>
+  <si>
+    <t>brand</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>品牌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>效果</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect_eb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>效果_电商</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect_game</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>效果_游戏</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect_others</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>效果_其它</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>byteSize</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>playDuration</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>frameRate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bitRate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>corner</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>角标：可用于标识投放平台的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>videoSrc</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>视频地址</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>flashSrc</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>flash地址</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>imgSrc</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片地址</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -870,7 +947,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -989,7 +1066,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1304,10 +1381,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1366,10 +1443,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>91</v>
+        <v>127</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>92</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1377,10 +1454,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>93</v>
+        <v>129</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>94</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1388,10 +1465,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>95</v>
+        <v>131</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>96</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1399,10 +1476,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1410,10 +1487,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1421,10 +1498,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1432,10 +1509,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1443,10 +1520,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1454,10 +1531,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1465,10 +1542,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1476,10 +1553,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1487,10 +1564,130 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="3">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="13.75" customWidth="1"/>
+    <col min="2" max="2" width="15.75" customWidth="1"/>
+    <col min="3" max="3" width="16.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="18.75">
+      <c r="A1" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>101000000</v>
+      </c>
+      <c r="B2" t="s">
         <v>111</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C2" t="s">
         <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>102000000</v>
+      </c>
+      <c r="B3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>102101000</v>
+      </c>
+      <c r="B4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>102102000</v>
+      </c>
+      <c r="B5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>102199000</v>
+      </c>
+      <c r="B6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C6" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/docs/基础数据：广告定义.xlsx
+++ b/docs/基础数据：广告定义.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="广告状态" sheetId="1" r:id="rId1"/>
@@ -14,12 +14,12 @@
     <sheet name="属性定义" sheetId="5" r:id="rId5"/>
     <sheet name="广告标签" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="122211" iterateDelta="1E-4"/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="137">
   <si>
     <t>状态ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -122,344 +122,361 @@
     <t>APP开发商</t>
   </si>
   <si>
+    <t>app下载地址</t>
+  </si>
+  <si>
+    <t>appMonUrl</t>
+  </si>
+  <si>
+    <t>app激活监测地址</t>
+  </si>
+  <si>
+    <t>siteUrl</t>
+  </si>
+  <si>
+    <t>网页地址</t>
+  </si>
+  <si>
+    <t>mapUrl</t>
+  </si>
+  <si>
+    <t>地图地址</t>
+  </si>
+  <si>
+    <t>videoUrl</t>
+  </si>
+  <si>
+    <t>视频地址</t>
+  </si>
+  <si>
+    <t>audioUrl</t>
+  </si>
+  <si>
+    <t>音频地址</t>
+  </si>
+  <si>
+    <t>phoneNum</t>
+  </si>
+  <si>
+    <t>电话号</t>
+  </si>
+  <si>
+    <t>smsPhone</t>
+  </si>
+  <si>
+    <t>短信号码</t>
+  </si>
+  <si>
+    <t>appleAppDownUrl</t>
+  </si>
+  <si>
+    <t>苹果应用下载地址</t>
+  </si>
+  <si>
+    <t>点击类型ID</t>
+  </si>
+  <si>
+    <t>点击类型</t>
+  </si>
+  <si>
+    <t>流量类型关系</t>
+  </si>
+  <si>
+    <t>发送电子邮件</t>
+  </si>
+  <si>
+    <t>pc、wap</t>
+  </si>
+  <si>
+    <t>下载App</t>
+  </si>
+  <si>
+    <t>app</t>
+  </si>
+  <si>
+    <t>打开网页</t>
+  </si>
+  <si>
+    <t>pc、wap、app</t>
+  </si>
+  <si>
+    <t>发送短信</t>
+  </si>
+  <si>
+    <t>wap、app</t>
+  </si>
+  <si>
+    <t>拨打电话</t>
+  </si>
+  <si>
+    <t>到AppStore下载App</t>
+  </si>
+  <si>
+    <t>打开地图</t>
+  </si>
+  <si>
+    <t>播放视频</t>
+  </si>
+  <si>
+    <t>播放音频</t>
+  </si>
+  <si>
+    <t>其他</t>
+  </si>
+  <si>
+    <t>无</t>
+  </si>
+  <si>
+    <t>广告类型ID</t>
+  </si>
+  <si>
+    <t>广告类型名称</t>
+  </si>
+  <si>
+    <t>广告类型简称</t>
+  </si>
+  <si>
+    <t>文字链广告</t>
+  </si>
+  <si>
+    <t>TEXT</t>
+  </si>
+  <si>
+    <t>图片</t>
+  </si>
+  <si>
+    <t>IMAGE</t>
+  </si>
+  <si>
+    <t>图文广告</t>
+  </si>
+  <si>
+    <t>IMAGE_TEXT</t>
+  </si>
+  <si>
+    <t>视频广告</t>
+  </si>
+  <si>
+    <t>VIDEO</t>
+  </si>
+  <si>
+    <t>FLASH广告</t>
+  </si>
+  <si>
+    <t>FLASH</t>
+  </si>
+  <si>
+    <t>原生广告</t>
+  </si>
+  <si>
+    <t>NATIVE</t>
+  </si>
+  <si>
+    <t>HTML广告</t>
+  </si>
+  <si>
+    <t>HTML</t>
+  </si>
+  <si>
+    <t>图片轮播广告</t>
+  </si>
+  <si>
+    <t>IMAGE_LOOP</t>
+  </si>
+  <si>
+    <t>素材属性ID</t>
+  </si>
+  <si>
+    <t>素材属性简称</t>
+  </si>
+  <si>
+    <t>desc</t>
+  </si>
+  <si>
+    <t>描述</t>
+  </si>
+  <si>
+    <t>width</t>
+  </si>
+  <si>
+    <t>宽</t>
+  </si>
+  <si>
+    <t>height</t>
+  </si>
+  <si>
+    <t>高</t>
+  </si>
+  <si>
+    <t>素材大小</t>
+  </si>
+  <si>
+    <t>mime</t>
+  </si>
+  <si>
+    <t>mime类型</t>
+  </si>
+  <si>
+    <t>ext</t>
+  </si>
+  <si>
+    <t>素材文件扩展名</t>
+  </si>
+  <si>
+    <t>播放时长（对于图片为0)</t>
+  </si>
+  <si>
+    <t>codec</t>
+  </si>
+  <si>
+    <t>编码方式</t>
+  </si>
+  <si>
+    <t>视频帧率</t>
+  </si>
+  <si>
+    <t>比特率</t>
+  </si>
+  <si>
+    <t>sample</t>
+  </si>
+  <si>
+    <t>采样率</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>html素材的内容</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>文本内容</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>广告标题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签ID</t>
+  </si>
+  <si>
+    <t>标签简称</t>
+  </si>
+  <si>
+    <t>brand</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>品牌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>效果</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect_eb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>效果_电商</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect_game</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>效果_游戏</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect_others</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>效果_其它</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>byteSize</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>playDuration</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>frameRate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bitRate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>corner</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>角标：可用于标识投放平台的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>videoSrc</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>视频地址</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>flashSrc</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>flash地址</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>imgSrc</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片地址</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>appDownUrl</t>
-  </si>
-  <si>
-    <t>app下载地址</t>
-  </si>
-  <si>
-    <t>appMonUrl</t>
-  </si>
-  <si>
-    <t>app激活监测地址</t>
-  </si>
-  <si>
-    <t>siteUrl</t>
-  </si>
-  <si>
-    <t>网页地址</t>
-  </si>
-  <si>
-    <t>mapUrl</t>
-  </si>
-  <si>
-    <t>地图地址</t>
-  </si>
-  <si>
-    <t>videoUrl</t>
-  </si>
-  <si>
-    <t>视频地址</t>
-  </si>
-  <si>
-    <t>audioUrl</t>
-  </si>
-  <si>
-    <t>音频地址</t>
-  </si>
-  <si>
-    <t>phoneNum</t>
-  </si>
-  <si>
-    <t>电话号</t>
-  </si>
-  <si>
-    <t>smsPhone</t>
-  </si>
-  <si>
-    <t>短信号码</t>
-  </si>
-  <si>
-    <t>appleAppDownUrl</t>
-  </si>
-  <si>
-    <t>苹果应用下载地址</t>
-  </si>
-  <si>
-    <t>点击类型ID</t>
-  </si>
-  <si>
-    <t>点击类型</t>
-  </si>
-  <si>
-    <t>流量类型关系</t>
-  </si>
-  <si>
-    <t>发送电子邮件</t>
-  </si>
-  <si>
-    <t>pc、wap</t>
-  </si>
-  <si>
-    <t>下载App</t>
-  </si>
-  <si>
-    <t>app</t>
-  </si>
-  <si>
-    <t>打开网页</t>
-  </si>
-  <si>
-    <t>pc、wap、app</t>
-  </si>
-  <si>
-    <t>发送短信</t>
-  </si>
-  <si>
-    <t>wap、app</t>
-  </si>
-  <si>
-    <t>拨打电话</t>
-  </si>
-  <si>
-    <t>到AppStore下载App</t>
-  </si>
-  <si>
-    <t>打开地图</t>
-  </si>
-  <si>
-    <t>播放视频</t>
-  </si>
-  <si>
-    <t>播放音频</t>
-  </si>
-  <si>
-    <t>其他</t>
-  </si>
-  <si>
-    <t>无</t>
-  </si>
-  <si>
-    <t>广告类型ID</t>
-  </si>
-  <si>
-    <t>广告类型名称</t>
-  </si>
-  <si>
-    <t>广告类型简称</t>
-  </si>
-  <si>
-    <t>文字链广告</t>
-  </si>
-  <si>
-    <t>TEXT</t>
-  </si>
-  <si>
-    <t>图片</t>
-  </si>
-  <si>
-    <t>IMAGE</t>
-  </si>
-  <si>
-    <t>图文广告</t>
-  </si>
-  <si>
-    <t>IMAGE_TEXT</t>
-  </si>
-  <si>
-    <t>视频广告</t>
-  </si>
-  <si>
-    <t>VIDEO</t>
-  </si>
-  <si>
-    <t>FLASH广告</t>
-  </si>
-  <si>
-    <t>FLASH</t>
-  </si>
-  <si>
-    <t>原生广告</t>
-  </si>
-  <si>
-    <t>NATIVE</t>
-  </si>
-  <si>
-    <t>HTML广告</t>
-  </si>
-  <si>
-    <t>HTML</t>
-  </si>
-  <si>
-    <t>图片轮播广告</t>
-  </si>
-  <si>
-    <t>IMAGE_LOOP</t>
-  </si>
-  <si>
-    <t>素材属性ID</t>
-  </si>
-  <si>
-    <t>素材属性简称</t>
-  </si>
-  <si>
-    <t>desc</t>
-  </si>
-  <si>
-    <t>描述</t>
-  </si>
-  <si>
-    <t>width</t>
-  </si>
-  <si>
-    <t>宽</t>
-  </si>
-  <si>
-    <t>height</t>
-  </si>
-  <si>
-    <t>高</t>
-  </si>
-  <si>
-    <t>素材大小</t>
-  </si>
-  <si>
-    <t>mime</t>
-  </si>
-  <si>
-    <t>mime类型</t>
-  </si>
-  <si>
-    <t>ext</t>
-  </si>
-  <si>
-    <t>素材文件扩展名</t>
-  </si>
-  <si>
-    <t>播放时长（对于图片为0)</t>
-  </si>
-  <si>
-    <t>codec</t>
-  </si>
-  <si>
-    <t>编码方式</t>
-  </si>
-  <si>
-    <t>视频帧率</t>
-  </si>
-  <si>
-    <t>比特率</t>
-  </si>
-  <si>
-    <t>sample</t>
-  </si>
-  <si>
-    <t>采样率</t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>text</t>
-  </si>
-  <si>
-    <t>html</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>html素材的内容</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>文本内容</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>广告标题</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>标签ID</t>
-  </si>
-  <si>
-    <t>标签简称</t>
-  </si>
-  <si>
-    <t>brand</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>品牌</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>效果</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect_eb</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>效果_电商</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect_game</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>效果_游戏</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect_others</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>效果_其它</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>byteSize</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>playDuration</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>frameRate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>bitRate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>corner</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>角标：可用于标识投放平台的</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>videoSrc</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>视频地址</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>flashSrc</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>flash地址</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>imgSrc</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>图片地址</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>appDesc</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>app描述</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>app大小（字节）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>appPkgSize</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -495,12 +512,12 @@
       <b/>
       <sz val="14"/>
       <name val="AR PL UKai CN"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="10.5"/>
       <name val="AR PL UKai CN"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -947,7 +964,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -958,13 +975,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" t="s">
         <v>64</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>65</v>
-      </c>
-      <c r="C1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -972,10 +989,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" t="s">
         <v>67</v>
-      </c>
-      <c r="C2" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -983,10 +1000,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" t="s">
         <v>69</v>
-      </c>
-      <c r="C3" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -994,10 +1011,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" t="s">
         <v>71</v>
-      </c>
-      <c r="C4" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1005,10 +1022,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" t="s">
         <v>73</v>
-      </c>
-      <c r="C5" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1016,10 +1033,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" t="s">
         <v>75</v>
-      </c>
-      <c r="C6" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1027,10 +1044,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" t="s">
         <v>77</v>
-      </c>
-      <c r="C7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1038,10 +1055,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" t="s">
         <v>79</v>
-      </c>
-      <c r="C8" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1049,10 +1066,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" t="s">
         <v>81</v>
-      </c>
-      <c r="C9" t="s">
-        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1063,14 +1080,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
+    <col min="1" max="1" width="14.375" customWidth="1"/>
     <col min="2" max="2" width="17.375" customWidth="1"/>
     <col min="3" max="3" width="25.125" customWidth="1"/>
   </cols>
@@ -1135,10 +1153,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C6" t="s">
         <v>28</v>
-      </c>
-      <c r="C6" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1146,10 +1164,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" t="s">
         <v>30</v>
-      </c>
-      <c r="C7" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1157,10 +1175,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>133</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1168,10 +1186,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>136</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>135</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1179,10 +1197,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1190,10 +1208,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C11" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1201,10 +1219,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1212,10 +1230,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C13" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1223,10 +1241,32 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" t="s">
         <v>44</v>
-      </c>
-      <c r="C14" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1251,16 +1291,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" t="s">
         <v>46</v>
-      </c>
-      <c r="B1" t="s">
-        <v>47</v>
       </c>
       <c r="C1" t="s">
         <v>19</v>
       </c>
       <c r="D1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1268,10 +1308,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" t="s">
         <v>49</v>
-      </c>
-      <c r="D2" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1279,10 +1319,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" t="s">
         <v>51</v>
-      </c>
-      <c r="D3" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1290,10 +1330,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" t="s">
         <v>53</v>
-      </c>
-      <c r="D4" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1301,10 +1341,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" t="s">
         <v>55</v>
-      </c>
-      <c r="D5" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1312,10 +1352,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1323,10 +1363,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1334,10 +1374,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1345,10 +1385,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1356,10 +1396,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1367,10 +1407,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" t="s">
         <v>62</v>
-      </c>
-      <c r="D11" t="s">
-        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1383,8 +1423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1396,211 +1436,211 @@
   <sheetData>
     <row r="1" spans="1:3" ht="18.75">
       <c r="A1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>84</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" ht="14.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+    </row>
+    <row r="3" spans="1:3" ht="14.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+    </row>
+    <row r="4" spans="1:3" ht="14.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+    </row>
+    <row r="5" spans="1:3" ht="14.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+    </row>
+    <row r="6" spans="1:3" ht="14.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+    </row>
+    <row r="7" spans="1:3" ht="14.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+    </row>
+    <row r="8" spans="1:3" ht="14.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="14.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+    </row>
+    <row r="10" spans="1:3" ht="14.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+    </row>
+    <row r="11" spans="1:3" ht="14.25">
       <c r="A11" s="3">
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="14.25">
       <c r="A12" s="3">
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+    </row>
+    <row r="13" spans="1:3" ht="14.25">
       <c r="A13" s="3">
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="14.25">
       <c r="A14" s="3">
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="14.25">
       <c r="A15" s="3">
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+    </row>
+    <row r="16" spans="1:3" ht="14.25">
       <c r="A16" s="3">
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="14.25">
       <c r="A17" s="3">
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="14.25">
       <c r="A18" s="3">
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+    </row>
+    <row r="19" spans="1:3" ht="14.25">
       <c r="A19" s="3">
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>125</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -1626,10 +1666,10 @@
   <sheetData>
     <row r="1" spans="1:3" ht="18.75">
       <c r="A1" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>19</v>
@@ -1640,10 +1680,10 @@
         <v>101000000</v>
       </c>
       <c r="B2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2" t="s">
         <v>111</v>
-      </c>
-      <c r="C2" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1651,10 +1691,10 @@
         <v>102000000</v>
       </c>
       <c r="B3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" t="s">
         <v>113</v>
-      </c>
-      <c r="C3" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1662,10 +1702,10 @@
         <v>102101000</v>
       </c>
       <c r="B4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C4" t="s">
         <v>115</v>
-      </c>
-      <c r="C4" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1673,10 +1713,10 @@
         <v>102102000</v>
       </c>
       <c r="B5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C5" t="s">
         <v>117</v>
-      </c>
-      <c r="C5" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1684,14 +1724,15 @@
         <v>102199000</v>
       </c>
       <c r="B6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C6" t="s">
         <v>119</v>
-      </c>
-      <c r="C6" t="s">
-        <v>120</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>